--- a/schematics/Uzebox-Omega/V1.1.1/Uzebox-Omega-1.1.1-BOM-Farnell.xlsx
+++ b/schematics/Uzebox-Omega/V1.1.1/Uzebox-Omega-1.1.1-BOM-Farnell.xlsx
@@ -37,7 +37,7 @@
     <t xml:space="preserve">DC Power Connector, Receptacle, 2.1 mm, PCB Mount, Solder or use 2839850</t>
   </si>
   <si>
-    <t xml:space="preserve">Pin Header, Right Angle, Wire-to-Board, 2.54 mm, 2 Rows, 6 Contacts, Through Hole Right Angle</t>
+    <t xml:space="preserve">Pin Header, Right Angle, Wire-to-Board, 2.54 mm, 2 Rows, 6 Contacts, Through Hole Right Angle or 2215288</t>
   </si>
   <si>
     <t xml:space="preserve">MULTICOMP PRO 2213S-16GPin Header, Board-to-Board, 2.54 mm, 2 Rows, 16 Contacts, Through Hole Straight, 2213S</t>

--- a/schematics/Uzebox-Omega/V1.1.1/Uzebox-Omega-1.1.1-BOM-Farnell.xlsx
+++ b/schematics/Uzebox-Omega/V1.1.1/Uzebox-Omega-1.1.1-BOM-Farnell.xlsx
@@ -28,7 +28,7 @@
     <t xml:space="preserve">Quantity</t>
   </si>
   <si>
-    <t xml:space="preserve">Uzebox Omega v1.1.1 Farnell components BOM. Last updated 10th July 2025.</t>
+    <t xml:space="preserve">Uzebox Omega v1.1.1 Farnell components BOM. Last updated 12th July 2025.</t>
   </si>
   <si>
     <t xml:space="preserve">9-pole Mini DIN Audio/Video Socket</t>
@@ -424,7 +424,7 @@
         <v>3289388</v>
       </c>
       <c r="B11" s="1" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>12</v>

--- a/schematics/Uzebox-Omega/V1.1.1/Uzebox-Omega-1.1.1-BOM-Farnell.xlsx
+++ b/schematics/Uzebox-Omega/V1.1.1/Uzebox-Omega-1.1.1-BOM-Farnell.xlsx
@@ -424,7 +424,7 @@
         <v>3289388</v>
       </c>
       <c r="B11" s="1" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>12</v>
